--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.235880398671096</v>
+        <v>4.13625304136253</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.4152823920265781</v>
+        <v>0.40551500405515</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.4983388704318937</v>
+        <v>0.4866180048661801</v>
       </c>
     </row>
     <row r="5">
@@ -578,29 +578,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[1272, 1629]</t>
+          <t>[1272]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 695, 710, 734, 743, 873, 879, 924, 1083, 1166, 1194, 1288, 1333, 1336, 1354, 1489, 1517, 1527, 1550, 1595, 1619]</t>
+          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 695, 710, 734, 743, 873, 879, 924, 1083, 1166, 1194, 1288, 1333, 1336, 1354, 1489, 1517, 1527, 1550, 1595, 1619, 1629]</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.574750830564784</v>
+        <v>2.59529602595296</v>
       </c>
     </row>
     <row r="6">
@@ -610,13 +610,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E6" t="n">
         <v>99</v>
@@ -628,11 +628,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 553, 571, 572, 573, 576, 656, 666, 707, 710, 719, 800, 835, 846, 847, 848, 849, 858, 879, 908, 963, 980, 983, 996, 997, 1009, 1063, 1074, 1157, 1166, 1227, 1264, 1299, 1322, 1324, 1372, 1404, 1414, 1435, 1436, 1456, 1471, 1608, 1609]</t>
+          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 553, 571, 572, 573, 576, 656, 666, 707, 710, 719, 800, 835, 846, 847, 848, 849, 858, 879, 908, 963, 980, 983, 996, 997, 1009, 1063, 1074, 1157, 1166, 1227, 1264, 1299, 1322, 1324, 1372, 1404, 1414, 1435, 1436, 1456, 1471, 1608, 1609, 1616, 1663]</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.308970099667775</v>
+        <v>7.2992700729927</v>
       </c>
     </row>
     <row r="7">
@@ -642,29 +642,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E7" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[1331, 1363, 1425, 1631, 1636]</t>
+          <t>[1363]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 933, 972, 981, 998, 1012, 1019, 1020, 1031, 1065, 1087, 1088, 1146, 1157, 1166, 1214, 1269, 1375, 1394, 1411, 1452, 1550, 1596, 1652]</t>
+          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 933, 972, 981, 998, 1012, 1019, 1020, 1031, 1065, 1087, 1088, 1146, 1157, 1166, 1214, 1269, 1375, 1394, 1411, 1425, 1452, 1550, 1596, 1631, 1652, 1676, 1677, 1678]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.392026578073089</v>
+        <v>7.623682076236821</v>
       </c>
     </row>
     <row r="8">
@@ -677,17 +677,17 @@
         <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[1347]</t>
+          <t>[924, 1347]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.744186046511628</v>
+        <v>1.70316301703163</v>
       </c>
     </row>
     <row r="9">
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
         <v>100</v>
@@ -724,11 +724,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[190, 350, 453, 471, 476, 506, 517, 520, 556, 613, 710, 711, 752, 837, 1087, 1166, 1260, 1445, 1595]</t>
+          <t>[190, 350, 453, 471, 476, 506, 517, 520, 556, 613, 710, 711, 752, 837, 1087, 1166, 1260, 1445, 1595, 1692]</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.578073089700997</v>
+        <v>1.6220600162206</v>
       </c>
     </row>
     <row r="10">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E10" t="n">
         <v>96</v>
@@ -756,11 +756,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 625, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790, 835, 836, 886, 929, 935, 960, 1034, 1040, 1101, 1166, 1169, 1179, 1184, 1254, 1294, 1345, 1347, 1358, 1408, 1504]</t>
+          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 625, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790, 835, 836, 886, 929, 935, 960, 1034, 1040, 1101, 1166, 1169, 1179, 1184, 1254, 1294, 1345, 1347, 1358, 1408, 1504, 1538, 1634, 1688]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4.152823920265781</v>
+        <v>4.29845904298459</v>
       </c>
     </row>
     <row r="11">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.910299003322259</v>
+        <v>1.86536901865369</v>
       </c>
     </row>
     <row r="12">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.571428571428571</v>
+        <v>3.487429034874291</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8305647840531563</v>
+        <v>0.8110300081103</v>
       </c>
     </row>
     <row r="14">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.7475083056478405</v>
+        <v>0.7299270072992701</v>
       </c>
     </row>
     <row r="15">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.32890365448505</v>
+        <v>1.29764801297648</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.9966777408637874</v>
+        <v>0.9732360097323601</v>
       </c>
     </row>
     <row r="17">
@@ -962,29 +962,29 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>46</v>
       </c>
       <c r="E17" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[931, 1249, 1516, 1532, 1533, 1614, 1650]</t>
+          <t>[1249, 1516, 1533, 1614, 1650]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 684, 687, 704, 710, 739, 812, 821, 836, 892, 894, 909, 929, 933, 987, 1016, 1087, 1166, 1507]</t>
+          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 684, 687, 704, 710, 739, 812, 821, 836, 892, 894, 909, 929, 931, 933, 987, 1016, 1087, 1166, 1507, 1532]</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.239202657807309</v>
+        <v>3.32522303325223</v>
       </c>
     </row>
     <row r="18">
@@ -994,29 +994,29 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>16</v>
       </c>
       <c r="E18" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[1592]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[66, 188, 190, 245, 350, 443, 476, 492, 516, 538, 633, 634, 710, 998, 1166]</t>
+          <t>[66, 188, 190, 245, 350, 443, 476, 492, 516, 538, 633, 634, 710, 998, 1166, 1592]</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.245847176079734</v>
+        <v>1.29764801297648</v>
       </c>
     </row>
     <row r="19">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1044,11 +1044,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[53, 132, 142, 190, 235, 248, 350, 370, 385, 476, 592, 613, 629, 653, 704, 710, 711, 721, 752, 930, 1059, 1076, 1166, 1348, 1613]</t>
+          <t>[53, 132, 142, 190, 235, 248, 350, 370, 385, 476, 592, 613, 629, 653, 704, 710, 711, 721, 752, 930, 1059, 1076, 1166, 1348, 1613, 1692]</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.07641196013289</v>
+        <v>2.10867802108678</v>
       </c>
     </row>
     <row r="20">
@@ -1058,29 +1058,29 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
         <v>56</v>
       </c>
       <c r="E20" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[631, 989, 990, 1017, 1035, 1300, 1386, 1409, 1438, 1486, 1494, 1667]</t>
+          <t>[631, 989, 990, 1017, 1035, 1386, 1409, 1438, 1494, 1667]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 626, 703, 705, 710, 726, 741, 742, 771, 835, 907, 942, 1007, 1095, 1166, 1295, 1327, 1424]</t>
+          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 626, 703, 705, 710, 726, 741, 742, 771, 835, 907, 942, 1007, 1095, 1166, 1295, 1300, 1327, 1424, 1486]</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.654485049833887</v>
+        <v>3.73073803730738</v>
       </c>
     </row>
     <row r="21">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.900332225913622</v>
+        <v>4.785077047850771</v>
       </c>
     </row>
     <row r="22">
@@ -1125,17 +1125,17 @@
         <v>50</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E22" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[1676, 1677, 1678]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4.152823920265781</v>
+        <v>4.0551500405515</v>
       </c>
     </row>
     <row r="23">
@@ -1154,13 +1154,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E23" t="n">
         <v>98</v>
@@ -1172,11 +1172,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 835, 861, 879, 888, 941, 944, 962, 1027, 1039, 1166, 1179, 1306, 1312, 1388, 1414, 1499, 1501, 1504, 1530]</t>
+          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 835, 861, 879, 888, 941, 944, 962, 1027, 1039, 1166, 1179, 1306, 1312, 1388, 1414, 1499, 1501, 1504, 1530, 1686]</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.235880398671096</v>
+        <v>4.21735604217356</v>
       </c>
     </row>
     <row r="24">
@@ -1186,16 +1186,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" t="n">
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E24" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1204,11 +1204,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[6, 107, 114, 124, 132, 170, 190, 280, 306, 350, 371, 386, 411, 451, 470, 476, 506, 536, 553, 567, 568, 578, 594, 604, 613, 624, 633, 634, 710, 752, 756, 790, 876, 883, 935, 998, 1166, 1179]</t>
+          <t>[6, 107, 114, 124, 132, 170, 190, 280, 306, 350, 371, 386, 411, 451, 470, 476, 506, 536, 553, 567, 568, 578, 594, 604, 613, 624, 633, 634, 710, 752, 756, 790, 876, 883, 935, 998, 1166, 1179, 1660]</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.156146179401993</v>
+        <v>3.16301703163017</v>
       </c>
     </row>
     <row r="25">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E25" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 644, 699, 1018, 1183, 1348, 1460, 1504, 1528, 1543, 1665]</t>
+          <t>[13, 644, 699, 1018, 1183, 1348, 1460, 1504, 1528, 1665]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064, 1158, 1166, 1204, 1226, 1240, 1247, 1259, 1260, 1306, 1312, 1318, 1325, 1329, 1337, 1355, 1388, 1414, 1458, 1477]</t>
+          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064, 1158, 1166, 1204, 1226, 1240, 1247, 1259, 1260, 1306, 1312, 1318, 1325, 1329, 1337, 1355, 1388, 1414, 1458, 1477, 1543, 1544, 1607, 1685, 1686]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10.46511627906977</v>
+        <v>10.62449310624493</v>
       </c>
     </row>
     <row r="26">
@@ -1250,13 +1250,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" t="n">
         <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26" t="n">
         <v>80</v>
@@ -1268,11 +1268,11 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[7, 31, 39, 58, 59, 75, 89, 95, 137, 162, 190, 197, 219, 247, 262, 293, 296, 341, 350, 354, 359, 283, 374, 376, 377, 404, 405, 413, 443, 476, 485, 505, 526, 527, 528, 570, 584, 607, 618, 649, 650, 673, 703, 710, 737, 773, 774, 869, 982, 1017, 1049, 1092, 1166, 1170, 1171, 1240, 1295, 1365, 1402]</t>
+          <t>[7, 31, 39, 58, 59, 75, 89, 95, 137, 162, 190, 197, 219, 247, 262, 293, 296, 341, 350, 354, 359, 283, 374, 376, 377, 404, 405, 413, 443, 476, 485, 505, 526, 527, 528, 570, 584, 607, 618, 649, 650, 673, 703, 710, 737, 773, 774, 869, 982, 1017, 1049, 1092, 1166, 1170, 1171, 1240, 1295, 1365, 1402, 1667]</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.900332225913622</v>
+        <v>4.866180048661801</v>
       </c>
     </row>
     <row r="27">
@@ -1282,29 +1282,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C27" t="n">
         <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E27" t="n">
         <v>96</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[695, 835, 868, 875, 916, 917, 1349, 1376, 1435, 1596]</t>
+          <t>[695, 835, 868, 875, 916, 917, 1349, 1376, 1435, 1693]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1163, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212, 1214, 1237, 1238, 1249, 1269, 1282, 1291, 1292, 1293, 1330, 1331, 1341, 1342, 1363, 1375, 1379, 1394, 1411, 1414, 1430, 1452, 1454, 1455, 1636, 1676, 1677, 1678]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1163, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212, 1214, 1237, 1238, 1249, 1269, 1282, 1291, 1292, 1293, 1330, 1331, 1341, 1342, 1363, 1375, 1379, 1394, 1411, 1414, 1430, 1452, 1454, 1455, 1596, 1636, 1652, 1676, 1677, 1678, 1694]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>17.77408637873754</v>
+        <v>17.59935117599351</v>
       </c>
     </row>
     <row r="28">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.9136212624584719</v>
+        <v>0.8921330089213302</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.13625304136253</v>
+        <v>4.096385542168675</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.40551500405515</v>
+        <v>0.4016064257028112</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.4866180048661801</v>
+        <v>0.4819277108433735</v>
       </c>
     </row>
     <row r="5">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.59529602595296</v>
+        <v>2.570281124497992</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.2992700729927</v>
+        <v>7.228915662650602</v>
       </c>
     </row>
     <row r="7">
@@ -642,29 +642,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[1363]</t>
+          <t>[1363, 1722]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 933, 972, 981, 998, 1012, 1019, 1020, 1031, 1065, 1087, 1088, 1146, 1157, 1166, 1214, 1269, 1375, 1394, 1411, 1425, 1452, 1550, 1596, 1631, 1652, 1676, 1677, 1678]</t>
+          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 933, 972, 981, 998, 1012, 1019, 1020, 1031, 1065, 1087, 1088, 1146, 1157, 1166, 1214, 1269, 1331, 1375, 1394, 1411, 1425, 1452, 1550, 1596, 1631, 1636, 1652, 1676, 1677, 1678]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.623682076236821</v>
+        <v>7.710843373493977</v>
       </c>
     </row>
     <row r="8">
@@ -674,16 +674,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -692,11 +692,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[64, 80, 85, 169, 190, 350, 437, 476, 615, 710, 734, 744, 755, 904, 958, 1156, 1166, 1294, 1299, 1424, 1521]</t>
+          <t>[64, 80, 85, 169, 190, 350, 437, 476, 615, 710, 734, 744, 755, 904, 958, 1156, 1166, 1294, 1299, 1424, 1520, 1521]</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.70316301703163</v>
+        <v>1.767068273092369</v>
       </c>
     </row>
     <row r="9">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.6220600162206</v>
+        <v>1.606425702811245</v>
       </c>
     </row>
     <row r="10">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4.29845904298459</v>
+        <v>4.257028112449799</v>
       </c>
     </row>
     <row r="11">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.86536901865369</v>
+        <v>1.847389558232932</v>
       </c>
     </row>
     <row r="12">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.487429034874291</v>
+        <v>3.453815261044177</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8110300081103</v>
+        <v>0.8032128514056224</v>
       </c>
     </row>
     <row r="14">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.7299270072992701</v>
+        <v>0.7228915662650602</v>
       </c>
     </row>
     <row r="15">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.29764801297648</v>
+        <v>1.285140562248996</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.9732360097323601</v>
+        <v>0.9638554216867471</v>
       </c>
     </row>
     <row r="17">
@@ -962,29 +962,29 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>46</v>
       </c>
       <c r="E17" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[1249, 1516, 1533, 1614, 1650]</t>
+          <t>[1516, 1614, 1650]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 684, 687, 704, 710, 739, 812, 821, 836, 892, 894, 909, 929, 931, 933, 987, 1016, 1087, 1166, 1507, 1532]</t>
+          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 684, 687, 704, 710, 739, 812, 821, 836, 892, 894, 909, 929, 931, 933, 987, 1016, 1087, 1166, 1249, 1507, 1532, 1533]</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.32522303325223</v>
+        <v>3.453815261044177</v>
       </c>
     </row>
     <row r="18">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.29764801297648</v>
+        <v>1.285140562248996</v>
       </c>
     </row>
     <row r="19">
@@ -1029,17 +1029,17 @@
         <v>26</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E19" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[1087, 1496, 1524]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.10867802108678</v>
+        <v>2.088353413654619</v>
       </c>
     </row>
     <row r="20">
@@ -1058,29 +1058,29 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
         <v>56</v>
       </c>
       <c r="E20" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[631, 989, 990, 1017, 1035, 1386, 1409, 1438, 1494, 1667]</t>
+          <t>[631, 989, 990, 1017, 1035, 1438]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 626, 703, 705, 710, 726, 741, 742, 771, 835, 907, 942, 1007, 1095, 1166, 1295, 1300, 1327, 1424, 1486]</t>
+          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 626, 703, 705, 710, 726, 741, 742, 771, 835, 907, 942, 1007, 1095, 1166, 1295, 1300, 1327, 1386, 1409, 1424, 1486, 1494, 1667]</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.73073803730738</v>
+        <v>4.016064257028113</v>
       </c>
     </row>
     <row r="21">
@@ -1093,17 +1093,17 @@
         <v>59</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E21" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[1293]</t>
+          <t>[1293, 1733]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.785077047850771</v>
+        <v>4.738955823293173</v>
       </c>
     </row>
     <row r="22">
@@ -1125,17 +1125,17 @@
         <v>50</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E22" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[1676, 1677, 1678]</t>
+          <t>[1676, 1677, 1678, 1723, 1725, 1728, 1729]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4.0551500405515</v>
+        <v>4.016064257028113</v>
       </c>
     </row>
     <row r="23">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.21735604217356</v>
+        <v>4.176706827309237</v>
       </c>
     </row>
     <row r="24">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.16301703163017</v>
+        <v>3.132530120481928</v>
       </c>
     </row>
     <row r="25">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D25" t="n">
         <v>141</v>
       </c>
       <c r="E25" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 644, 699, 1018, 1183, 1348, 1460, 1504, 1528, 1665]</t>
+          <t>[13, 644, 1018, 1183, 1348, 1504, 1528, 1665]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064, 1158, 1166, 1204, 1226, 1240, 1247, 1259, 1260, 1306, 1312, 1318, 1325, 1329, 1337, 1355, 1388, 1414, 1458, 1477, 1543, 1544, 1607, 1685, 1686]</t>
+          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 699, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064, 1158, 1166, 1204, 1226, 1240, 1247, 1259, 1260, 1306, 1312, 1318, 1325, 1329, 1337, 1355, 1388, 1414, 1458, 1460, 1477, 1543, 1544, 1607, 1685, 1686]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10.62449310624493</v>
+        <v>10.68273092369478</v>
       </c>
     </row>
     <row r="26">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.866180048661801</v>
+        <v>4.819277108433735</v>
       </c>
     </row>
     <row r="27">
@@ -1282,29 +1282,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E27" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[695, 835, 868, 875, 916, 917, 1349, 1376, 1435, 1693]</t>
+          <t>[695, 835, 868, 875, 916, 917, 1349, 1376, 1435, 1693, 1741]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1163, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212, 1214, 1237, 1238, 1249, 1269, 1282, 1291, 1292, 1293, 1330, 1331, 1341, 1342, 1363, 1375, 1379, 1394, 1411, 1414, 1430, 1452, 1454, 1455, 1596, 1636, 1652, 1676, 1677, 1678, 1694]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1163, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212, 1214, 1237, 1238, 1249, 1269, 1282, 1291, 1292, 1293, 1330, 1331, 1341, 1342, 1363, 1375, 1379, 1394, 1411, 1414, 1430, 1452, 1454, 1455, 1596, 1636, 1652, 1676, 1677, 1678, 1694, 1724]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>17.59935117599351</v>
+        <v>17.51004016064257</v>
       </c>
     </row>
     <row r="28">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.8921330089213302</v>
+        <v>0.8835341365461846</v>
       </c>
     </row>
   </sheetData>
